--- a/data/air_info/厦门-上海.xlsx
+++ b/data/air_info/厦门-上海.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC65FF4-E346-41CE-9C15-69278E37E4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D775C1-1A93-43F2-AB27-16FD1D7B289F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,45 +33,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>山航经济舱Boeing 737SC 2167</t>
   </si>
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A320MU 5246</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>厦航经济舱Airbus A321neoMF 8511</t>
   </si>
   <si>
     <t>上航经济舱Boeing 737FM 9264</t>
   </si>
   <si>
-    <t>行程时间：1 小时 45 分钟</t>
-  </si>
-  <si>
     <t>春航经济舱Airbus A3209C 8816</t>
   </si>
   <si>
     <t>上航经济舱Boeing 737FM 9536</t>
   </si>
   <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
     <t>厦航经济舱Boeing 737MAX 8 PassengerMF 8567</t>
   </si>
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Boeing 737MU 5666</t>
   </si>
   <si>
@@ -93,9 +75,6 @@
     <t>上航经济舱Airbus A321FM 9262</t>
   </si>
   <si>
-    <t>行程时间：1 小时 40 分钟</t>
-  </si>
-  <si>
     <t>厦航经济舱Boeing 737MAX 8 PassengerMF 8517</t>
   </si>
   <si>
@@ -127,7 +106,27 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>2 小时</t>
+  </si>
+  <si>
+    <t>1 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 40 分钟</t>
   </si>
 </sst>
 </file>
@@ -486,7 +485,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -497,31 +496,30 @@
     <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,23 +527,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>0.4201388888888889</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(900,2500)</f>
-        <v>1106</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,23 +550,22 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2">
         <v>0.42708333333333331</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G16" ca="1" si="0">RANDBETWEEN(900,2500)</f>
-        <v>2423</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,23 +573,22 @@
         <v>0.375</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>0.45833333333333331</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2197</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,23 +596,22 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>0.4861111111111111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1508</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,23 +619,22 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>0.49652777777777779</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1277</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,23 +642,22 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>0.53819444444444442</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1299</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -673,23 +665,22 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>0.53472222222222221</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2105</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,23 +688,22 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>0.67361111111111116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1299</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -721,23 +711,22 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>0.69791666666666663</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1419</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -745,23 +734,22 @@
         <v>0.625</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2047</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -769,23 +757,22 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>0.75694444444444442</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1370</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -793,23 +780,22 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>962</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,23 +803,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>0.86805555555555558</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1915</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -841,23 +826,22 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>0.91666666666666663</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1350</v>
+        <v>974</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,23 +849,22 @@
         <v>0.875</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>0.94444444444444442</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1790</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
